--- a/data/trans_orig/P74B2S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F397A5F-9FC3-496D-9460-9F402BFDDC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B64435-7C2F-4540-8DF8-403C0EF36596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A69F7122-01D6-47B1-8AD9-C4DA30861D93}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D21C5045-3014-4B60-B971-C93F7F10BA00}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 2 en 2012 (Tasa respuesta: 5,52%)</t>
   </si>
@@ -119,19 +119,19 @@
     <t>42,04%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -140,19 +140,19 @@
     <t>48,29%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -164,13 +164,13 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>39,39%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>38,53%</t>
+    <t>30,89%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -182,16 +182,16 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>16,45%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>51,66%</t>
@@ -200,19 +200,16 @@
     <t>60,37%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>76,18%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -227,19 +224,19 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -248,55 +245,55 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>45,03%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>44,18%</t>
+    <t>43,65%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>61,37%</t>
+    <t>60,81%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -305,34 +302,34 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>11,01%</t>
+    <t>10,58%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -341,7 +338,10 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>16,03%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -350,31 +350,31 @@
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>8,0%</t>
+    <t>9,61%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>6,09%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -386,85 +386,82 @@
     <t>90,92%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>93,91%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>17,75%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>12,19%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -473,34 +470,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D7B33D-60C2-4E6C-9BF9-8BF65DD67880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7001A0A2-22F7-49D9-985B-2850FBA5276D}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1874,10 +1871,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1913,7 +1910,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1928,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1958,13 +1955,13 @@
         <v>10635</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -1973,13 +1970,13 @@
         <v>10635</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,7 +2032,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2047,13 +2044,13 @@
         <v>2208</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2062,13 +2059,13 @@
         <v>3126</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2077,13 +2074,13 @@
         <v>5334</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2095,13 @@
         <v>2189</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2113,13 +2110,13 @@
         <v>16265</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2128,13 +2125,13 @@
         <v>18453</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2146,13 @@
         <v>3261</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2170,7 +2167,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2179,13 +2176,13 @@
         <v>3260</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2197,13 @@
         <v>6281</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -2215,13 +2212,13 @@
         <v>77588</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M27" s="7">
         <v>76</v>
@@ -2230,13 +2227,13 @@
         <v>83869</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2289,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2304,10 +2301,10 @@
         <v>5327</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>101</v>
@@ -2630,10 +2627,10 @@
         <v>135</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -2642,13 +2639,13 @@
         <v>47228</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2660,13 @@
         <v>3260</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2684,7 +2681,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2693,13 +2690,13 @@
         <v>3260</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2711,13 @@
         <v>70291</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H37" s="7">
         <v>228</v>
@@ -2729,13 +2726,13 @@
         <v>244812</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>287</v>
@@ -2744,13 +2741,13 @@
         <v>315103</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,7 +2803,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B64435-7C2F-4540-8DF8-403C0EF36596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB81BABD-3EA5-49E4-B280-4B3679FFF1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D21C5045-3014-4B60-B971-C93F7F10BA00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F8907F-10C9-4EB2-BC2D-37CC65F04874}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 2 en 2012 (Tasa respuesta: 5,52%)</t>
   </si>
@@ -119,19 +119,19 @@
     <t>42,04%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -140,19 +140,19 @@
     <t>48,29%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>37,15%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -164,13 +164,13 @@
     <t>9,67%</t>
   </si>
   <si>
-    <t>39,85%</t>
+    <t>40,23%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>30,89%</t>
+    <t>33,37%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -182,16 +182,16 @@
     <t>3,95%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>20,39%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>51,66%</t>
@@ -200,16 +200,19 @@
     <t>60,37%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>76,18%</t>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -224,19 +227,19 @@
     <t>35,68%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -245,55 +248,55 @@
     <t>15,84%</t>
   </si>
   <si>
-    <t>45,03%</t>
+    <t>44,89%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>43,65%</t>
+    <t>47,17%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>60,81%</t>
+    <t>63,43%</t>
   </si>
   <si>
     <t>2,18%</t>
@@ -302,34 +305,34 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>80,01%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -338,10 +341,10 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -353,28 +356,28 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>5,17%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>9,61%</t>
+    <t>8,68%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -386,82 +389,85 @@
     <t>90,92%</t>
   </si>
   <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>94,53%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>17,75%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -470,34 +476,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -912,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7001A0A2-22F7-49D9-985B-2850FBA5276D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50959FB-39E7-4E63-B78B-68E408A75923}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1871,10 +1877,10 @@
         <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1910,7 +1916,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1925,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1955,13 +1961,13 @@
         <v>10635</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -1970,13 +1976,13 @@
         <v>10635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2038,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2050,13 @@
         <v>2208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -2059,13 +2065,13 @@
         <v>3126</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -2074,13 +2080,13 @@
         <v>5334</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2101,13 @@
         <v>2189</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2110,13 +2116,13 @@
         <v>16265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2125,13 +2131,13 @@
         <v>18453</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2152,13 @@
         <v>3261</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2167,7 +2173,7 @@
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2176,13 +2182,13 @@
         <v>3260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2203,13 @@
         <v>6281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -2212,13 +2218,13 @@
         <v>77588</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M27" s="7">
         <v>76</v>
@@ -2227,13 +2233,13 @@
         <v>83869</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2295,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2301,13 +2307,13 @@
         <v>5327</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2322,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2331,13 +2337,13 @@
         <v>5327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,13 +2358,13 @@
         <v>1069</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2367,13 +2373,13 @@
         <v>2657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2382,13 +2388,13 @@
         <v>3725</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2424,7 +2430,7 @@
         <v>17</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2439,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2460,13 @@
         <v>64010</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>147</v>
@@ -2469,10 +2475,10 @@
         <v>155599</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>12</v>
@@ -2484,13 +2490,13 @@
         <v>219610</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2564,13 @@
         <v>12584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -2573,13 +2579,13 @@
         <v>20664</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -2588,13 +2594,13 @@
         <v>33248</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2615,13 @@
         <v>5375</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -2624,13 +2630,13 @@
         <v>41853</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M35" s="7">
         <v>41</v>
@@ -2639,13 +2645,13 @@
         <v>47228</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,13 +2666,13 @@
         <v>3260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2681,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -2690,13 +2696,13 @@
         <v>3260</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,13 +2717,13 @@
         <v>70291</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>228</v>
@@ -2726,13 +2732,13 @@
         <v>244812</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M37" s="7">
         <v>287</v>
@@ -2741,13 +2747,13 @@
         <v>315103</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2809,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
